--- a/bird_fucntional_groups_8-5-14.xlsx
+++ b/bird_fucntional_groups_8-5-14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="2900" windowWidth="26460" windowHeight="17260" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="17320" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pnas_varibales" sheetId="1" r:id="rId1"/>
@@ -22,432 +22,443 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
+  <si>
+    <t>prbo_habitat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnas_habitat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA only, http://www.prbo.org/calpif/htmldocs/riparian.html</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackhead_grossbeak</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pheucticus melanocephalus</t>
+  </si>
+  <si>
+    <t>KG decision on habitat and diet; all other data from CLO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cornell lab lists as having same functional traits as Eastern Meadowlark (Sturnella magna)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly_catching</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mammal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnas_notes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clo_habitat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clo_nesting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clo_behavior</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clo_notes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>called for key 8-5-14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_woodland</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clo_food</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_woodland</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cedar_waxwing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bombycilla cedrorum</t>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fg_notes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>habitat from CLO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>problematic as it does NOT list omnivores</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnas_diet</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnas_habitat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnas_diet</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clo_food</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clo_nesting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clo_behavior</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clo_notes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clo_habitat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cornell_Lab http://www.allaboutbirds.org/guide/bobolink/id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.prbo.org/calpif/htmldocs/species/grassland/savsacct.html</t>
+  </si>
+  <si>
+    <t>Sturnella neglecta</t>
+  </si>
+  <si>
+    <t>meadow_lark</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yb_cuckoo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vireo bellii pusillus</t>
+  </si>
+  <si>
+    <t>bells_vireo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coccyzus americanus occidentalis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empidonax traillii</t>
+  </si>
+  <si>
+    <t>willow_flycatcher</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>diet</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nesting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>behavior</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>foliage_gleaner</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>graycrown_yt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrub</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>diet &amp; nesting &amp; behavior from Cornell Lab of Ornithology, http://www.allaboutbirds.org/guide/search</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground_forager</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>From Cagan, Daily, Erlich 2004 PNAS: Ecological Consequences of Bird decline (fig1 c); paper in Google Drive</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>From Cagan, Daily, Erlich 2004 PNAS: Ecological Consequences of Bird decline (fig1 a); paper in Google Drive; SI linkhttp://www.pnas.org/content/101/52/18042.full?tab=ds</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothlypis poliocephala</t>
+  </si>
+  <si>
+    <t>house_wren</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_thrush</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hylocichla mustelina</t>
+  </si>
+  <si>
+    <t>forest</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>riparian</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>riparian</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>scarlet_tanager</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>listed by cornell lab of ornithology as a "forest interior bird" (this is not a truly forest dependent spp during neotropical migration) http://www.birds.cornell.edu/bbimages/clo/pdf/tanager.pdf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piranga olivacea</t>
+  </si>
+  <si>
+    <t>Dolichonyx oryzivorus</t>
+  </si>
+  <si>
+    <t>bobolink</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passerculus sandwichensis</t>
+  </si>
+  <si>
+    <t>savannah_sparrow</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>scavenger</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nectar</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ominvore</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>invertebrate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertebrate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>variable_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_notes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_notes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wetland</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>coastal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassland</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrub</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>riparian</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocky</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>savanna</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>human</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>desert</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>habitat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troglodytes aedon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>oh_y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
   <si>
     <t>from cornell lab of ornithology, http://www.allaboutbirds.org/guide/bobolink/id DIET MAY BE PROBLEMATIC--&gt; KG FOLLOW UP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>from cornell lab of ornithology, http://www.allaboutbirds.org/guide/bobolink/id not sure of overlap with PNAS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>KG called 8-5-2014 to ask for CLO life history keys</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>prbo_habitat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pnas_habitat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA only, http://www.prbo.org/calpif/htmldocs/riparian.html</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackhead_grossbeak</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pheucticus melanocephalus</t>
-  </si>
-  <si>
-    <t>KG decision on habitat and diet; all other data from CLO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>seed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cornell lab lists as having same functional traits as Eastern Meadowlark (Sturnella magna)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fly_catching</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mammal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fruit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>building</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fruit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pnas_notes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>clo_habitat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>clo_nesting</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>clo_behavior</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>clo_notes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>called for key 8-5-14</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_woodland</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>clo_food</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_woodland</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cedar_waxwing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bombycilla cedrorum</t>
-  </si>
-  <si>
-    <t>tree</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fg_notes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>habitat from CLO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>problematic as it does NOT list omnivores</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pnas_diet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pnas_habitat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pnas_diet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>clo_food</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>clo_nesting</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>clo_behavior</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>clo_notes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>clo_habitat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cornell_Lab http://www.allaboutbirds.org/guide/bobolink/id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.prbo.org/calpif/htmldocs/species/grassland/savsacct.html</t>
-  </si>
-  <si>
-    <t>Sturnella neglecta</t>
-  </si>
-  <si>
-    <t>meadow_lark</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yb_cuckoo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vireo bellii pusillus</t>
-  </si>
-  <si>
-    <t>bells_vireo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coccyzus americanus occidentalis</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Empidonax traillii</t>
-  </si>
-  <si>
-    <t>willow_flycatcher</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>diet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nesting</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>behavior</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>foliage_gleaner</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graycrown_yt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shrub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>diet &amp; nesting &amp; behavior from Cornell Lab of Ornithology, http://www.allaboutbirds.org/guide/search</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ground_forager</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ground</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>From Cagan, Daily, Erlich 2004 PNAS: Ecological Consequences of Bird decline (fig1 c); paper in Google Drive</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>From Cagan, Daily, Erlich 2004 PNAS: Ecological Consequences of Bird decline (fig1 a); paper in Google Drive; SI linkhttp://www.pnas.org/content/101/52/18042.full?tab=ds</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothlypis poliocephala</t>
-  </si>
-  <si>
-    <t>Troglodytes aedon</t>
-  </si>
-  <si>
-    <t>house_wren</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>species</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_thrush</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hylocichla mustelina</t>
-  </si>
-  <si>
-    <t>forest</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>riparian</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>riparian</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>scarlet_tanager</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>listed by cornell lab of ornithology as a "forest interior bird" (this is not a truly forest dependent spp during neotropical migration) http://www.birds.cornell.edu/bbimages/clo/pdf/tanager.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Piranga olivacea</t>
-  </si>
-  <si>
-    <t>Dolichonyx oryzivorus</t>
-  </si>
-  <si>
-    <t>bobolink</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Passerculus sandwichensis</t>
-  </si>
-  <si>
-    <t>savannah_sparrow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>scavenger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>plant</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fruit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nectar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ominvore</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>invertebrate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>seed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>vertebrate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>variable_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_notes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_notes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sea</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>forest</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wetland</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>coastal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>grassland</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shrub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>riparian</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rocky</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>savanna</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>human</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>desert</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>habitat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -490,11 +501,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,7 +942,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -943,13 +955,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -959,117 +971,117 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1108,9 +1120,8 @@
       <c r="D23" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -1136,74 +1147,74 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -1211,9 +1222,8 @@
       <c r="D7" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1225,309 +1235,351 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="C5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
       </c>
       <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="G13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="D15" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1552,86 +1604,85 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
